--- a/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1161,4 +1162,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1170,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,17 +1182,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1201,14 +1222,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1217,13 +1260,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1493,7 +1494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,17 +1505,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1524,14 +1545,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1540,11 +1635,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0.91</v>
@@ -1556,13 +1651,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1588,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,17 +1600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1640,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -1635,14 +1730,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1651,11 +1746,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0.91</v>
@@ -1667,13 +1762,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603738-泰晶科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -534,11 +535,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>0.91</v>
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,35 +639,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070022</t>
+          <t>010797</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实领先成长混合</t>
+          <t>长城优选回报六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.81</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1822</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>070022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>嘉实领先成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>85.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.1822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -754,6 +809,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,7 +1224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
